--- a/medicine/Enfance/Justine_Cunha/Justine_Cunha.xlsx
+++ b/medicine/Enfance/Justine_Cunha/Justine_Cunha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Justine Cunha est une animatrice française, illustratrice et dessinatrice de bande dessinée née le 29 avril 1992 à Compiègne.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Née le 29 avril 1992 à Compiègne, Justine Cunha suit un cursus dans l'animation et exerce dans cette branche à partir de 2015[1]. Cette même année, à l'issue de ses études à Supinfocom Rubika, elle réalise son film de fin d'études, Water Lily, avec Clémentine Delcourt, Alexandra Batina, Margaux Lahuppe et Pascal Miller ; lors de l’International digital animation festival à Nagoya, ce travail est récompensé par le prix spécial du jury[2].
-En 2018, elle rencontre la scénariste Carbone et leur collaboration aboutit à la série Dans les yeux de Lya (Dupuis) publiée à partir de 2019 et qui compte trois tomes en 2021[3],[4],[5]. L'artiste résume l'intrigue : « un livre qui est construit comme un polar et dont le héros est une femme handicapée »[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Née le 29 avril 1992 à Compiègne, Justine Cunha suit un cursus dans l'animation et exerce dans cette branche à partir de 2015. Cette même année, à l'issue de ses études à Supinfocom Rubika, elle réalise son film de fin d'études, Water Lily, avec Clémentine Delcourt, Alexandra Batina, Margaux Lahuppe et Pascal Miller ; lors de l’International digital animation festival à Nagoya, ce travail est récompensé par le prix spécial du jury.
+En 2018, elle rencontre la scénariste Carbone et leur collaboration aboutit à la série Dans les yeux de Lya (Dupuis) publiée à partir de 2019 et qui compte trois tomes en 2021. L'artiste résume l'intrigue : « un livre qui est construit comme un polar et dont le héros est une femme handicapée ».
 </t>
         </is>
       </c>
@@ -545,16 +559,18 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Bande dessinée
-Dans les yeux de Lya (dessin et couleurs), scénario de Carbone, Dupuis
-En quête de vérité[7], 2019  (ISBN 9791034732630)
+          <t>Bande dessinée</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Dans les yeux de Lya (dessin et couleurs), scénario de Carbone, Dupuis
+En quête de vérité, 2019  (ISBN 9791034732630)
 Sur les traces du coupable, 2020  (ISBN 9791034736867)
 Un coupable intouchable, 2021  (ISBN 9791034738960)
 Les Contes des Cœurs perdus (dessin), scénario Loïc Clément, Delcourt, coll. « Jeunesse »
-Héloïse et les larmes de givre, 2023  (ISBN 9782413015307)
-Illustration
-Sauf mention contraire, Justine Cunha est illustratrice des albums.
-Le Livre docteur, textes d'Alix Vandenbroucke, Yo ! éditions,  (ISBN 978-2-9578427-7-3) (BNF 47165157)</t>
+Héloïse et les larmes de givre, 2023  (ISBN 9782413015307)</t>
         </is>
       </c>
     </row>
@@ -579,12 +595,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Illustration</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Sauf mention contraire, Justine Cunha est illustratrice des albums.
+Le Livre docteur, textes d'Alix Vandenbroucke, Yo ! éditions,  (ISBN 978-2-9578427-7-3) (BNF 47165157)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Justine_Cunha</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Justine_Cunha</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2022 :  prix Sproing de la meilleure bande dessinée étrangère pour Dans les yeux de Lisa t. 3 (avec Carbone)[8]</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2022 :  prix Sproing de la meilleure bande dessinée étrangère pour Dans les yeux de Lisa t. 3 (avec Carbone)</t>
         </is>
       </c>
     </row>
